--- a/data_example/Standard_pit.xlsx
+++ b/data_example/Standard_pit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -478,28 +478,26 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="2.02551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.02551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="I40" s="16" t="n">
-        <f aca="false">IF(H40="feast",1,IF(H40="4 finger",2,IF(H40="3 finger",3,IF(H40="2 finger",4,IF(H40="1 finger",5,IF(H40="pencil",6,IF(H40="knife",7,nan)))))))</f>
+        <f aca="false">IF(H40="feast",1,IF(H40="4 finger",2,IF(H40="3 finger",3,IF(H40="2 finger",4,IF(H40="1 finger",5,IF(H40="pencil",6,IF(H40="knife",7,IF(H40="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
       <c r="J40" s="7"/>
@@ -906,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="I41" s="16" t="n">
-        <f aca="false">IF(H41="feast",1,IF(H41="4 finger",2,IF(H41="3 finger",3,IF(H41="2 finger",4,IF(H41="1 finger",5,IF(H41="pencil",6,IF(H41="knife",7,nan)))))))</f>
+        <f aca="false">IF(H41="feast",1,IF(H41="4 finger",2,IF(H41="3 finger",3,IF(H41="2 finger",4,IF(H41="1 finger",5,IF(H41="pencil",6,IF(H41="knife",7,IF(H41="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
       <c r="J41" s="7"/>
@@ -950,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="I42" s="16" t="n">
-        <f aca="false">IF(H42="feast",1,IF(H42="4 finger",2,IF(H42="3 finger",3,IF(H42="2 finger",4,IF(H42="1 finger",5,IF(H42="pencil",6,IF(H42="knife",7,nan)))))))</f>
+        <f aca="false">IF(H42="feast",1,IF(H42="4 finger",2,IF(H42="3 finger",3,IF(H42="2 finger",4,IF(H42="1 finger",5,IF(H42="pencil",6,IF(H42="knife",7,IF(H42="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
       <c r="J42" s="7"/>
@@ -994,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="16" t="n">
-        <f aca="false">IF(H43="feast",1,IF(H43="4 finger",2,IF(H43="3 finger",3,IF(H43="2 finger",4,IF(H43="1 finger",5,IF(H43="pencil",6,IF(H43="knife",7,nan)))))))</f>
+        <f aca="false">IF(H43="feast",1,IF(H43="4 finger",2,IF(H43="3 finger",3,IF(H43="2 finger",4,IF(H43="1 finger",5,IF(H43="pencil",6,IF(H43="knife",7,IF(H43="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
       <c r="J43" s="7"/>
@@ -1038,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="I44" s="16" t="n">
-        <f aca="false">IF(H44="feast",1,IF(H44="4 finger",2,IF(H44="3 finger",3,IF(H44="2 finger",4,IF(H44="1 finger",5,IF(H44="pencil",6,IF(H44="knife",7,nan)))))))</f>
+        <f aca="false">IF(H44="feast",1,IF(H44="4 finger",2,IF(H44="3 finger",3,IF(H44="2 finger",4,IF(H44="1 finger",5,IF(H44="pencil",6,IF(H44="knife",7,IF(H44="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
       <c r="J44" s="7"/>
@@ -1078,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="16" t="n">
-        <f aca="false">IF(H45="feast",1,IF(H45="4 finger",2,IF(H45="3 finger",3,IF(H45="2 finger",4,IF(H45="1 finger",5,IF(H45="pencil",6,IF(H45="knife",7,nan)))))))</f>
+        <f aca="false">IF(H45="feast",1,IF(H45="4 finger",2,IF(H45="3 finger",3,IF(H45="2 finger",4,IF(H45="1 finger",5,IF(H45="pencil",6,IF(H45="knife",7,IF(H45="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
       <c r="J45" s="7"/>
@@ -1116,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="16" t="n">
-        <f aca="false">IF(H46="feast",1,IF(H46="4 finger",2,IF(H46="3 finger",3,IF(H46="2 finger",4,IF(H46="1 finger",5,IF(H46="pencil",6,IF(H46="knife",7,nan)))))))</f>
+        <f aca="false">IF(H46="feast",1,IF(H46="4 finger",2,IF(H46="3 finger",3,IF(H46="2 finger",4,IF(H46="1 finger",5,IF(H46="pencil",6,IF(H46="knife",7,IF(H46="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
       <c r="J46" s="7"/>
@@ -1154,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="I47" s="16" t="n">
-        <f aca="false">IF(H47="feast",1,IF(H47="4 finger",2,IF(H47="3 finger",3,IF(H47="2 finger",4,IF(H47="1 finger",5,IF(H47="pencil",6,IF(H47="knife",7,nan)))))))</f>
+        <f aca="false">IF(H47="feast",1,IF(H47="4 finger",2,IF(H47="3 finger",3,IF(H47="2 finger",4,IF(H47="1 finger",5,IF(H47="pencil",6,IF(H47="knife",7,IF(H47="nan","NaN","NaN"))))))))</f>
         <v>5</v>
       </c>
       <c r="J47" s="7"/>
@@ -1190,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="I48" s="16" t="n">
-        <f aca="false">IF(H48="feast",1,IF(H48="4 finger",2,IF(H48="3 finger",3,IF(H48="2 finger",4,IF(H48="1 finger",5,IF(H48="pencil",6,IF(H48="knife",7,nan)))))))</f>
+        <f aca="false">IF(H48="feast",1,IF(H48="4 finger",2,IF(H48="3 finger",3,IF(H48="2 finger",4,IF(H48="1 finger",5,IF(H48="pencil",6,IF(H48="knife",7,IF(H48="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
       <c r="J48" s="7"/>
@@ -1224,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="16" t="n">
-        <f aca="false">IF(H49="feast",1,IF(H49="4 finger",2,IF(H49="3 finger",3,IF(H49="2 finger",4,IF(H49="1 finger",5,IF(H49="pencil",6,IF(H49="knife",7,nan)))))))</f>
+        <f aca="false">IF(H49="feast",1,IF(H49="4 finger",2,IF(H49="3 finger",3,IF(H49="2 finger",4,IF(H49="1 finger",5,IF(H49="pencil",6,IF(H49="knife",7,IF(H49="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
       <c r="J49" s="7"/>
@@ -1258,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="I50" s="16" t="n">
-        <f aca="false">IF(H50="feast",1,IF(H50="4 finger",2,IF(H50="3 finger",3,IF(H50="2 finger",4,IF(H50="1 finger",5,IF(H50="pencil",6,IF(H50="knife",7,nan)))))))</f>
+        <f aca="false">IF(H50="feast",1,IF(H50="4 finger",2,IF(H50="3 finger",3,IF(H50="2 finger",4,IF(H50="1 finger",5,IF(H50="pencil",6,IF(H50="knife",7,IF(H50="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
       <c r="J50" s="7"/>
@@ -1294,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="16" t="n">
-        <f aca="false">IF(H51="feast",1,IF(H51="4 finger",2,IF(H51="3 finger",3,IF(H51="2 finger",4,IF(H51="1 finger",5,IF(H51="pencil",6,IF(H51="knife",7,nan)))))))</f>
+        <f aca="false">IF(H51="feast",1,IF(H51="4 finger",2,IF(H51="3 finger",3,IF(H51="2 finger",4,IF(H51="1 finger",5,IF(H51="pencil",6,IF(H51="knife",7,IF(H51="nan","NaN","NaN"))))))))</f>
         <v>5</v>
       </c>
       <c r="J51" s="7"/>
@@ -1330,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="I52" s="16" t="n">
-        <f aca="false">IF(H52="feast",1,IF(H52="4 finger",2,IF(H52="3 finger",3,IF(H52="2 finger",4,IF(H52="1 finger",5,IF(H52="pencil",6,IF(H52="knife",7,nan)))))))</f>
+        <f aca="false">IF(H52="feast",1,IF(H52="4 finger",2,IF(H52="3 finger",3,IF(H52="2 finger",4,IF(H52="1 finger",5,IF(H52="pencil",6,IF(H52="knife",7,IF(H52="nan","NaN","NaN"))))))))</f>
         <v>7</v>
       </c>
       <c r="J52" s="7"/>

--- a/data_example/Standard_pit.xlsx
+++ b/data_example/Standard_pit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t xml:space="preserve">Snowpit form for Snowpyt package</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">Layer #, from top to bottom</t>
+    <t xml:space="preserve">Layer ID</t>
   </si>
   <si>
     <t xml:space="preserve">Top [cm]</t>
@@ -187,6 +187,9 @@
     <t xml:space="preserve">Type 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Type 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diameter min [mm]</t>
   </si>
   <si>
@@ -202,7 +205,7 @@
     <t xml:space="preserve">Depth Center [cm]</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow Density [g/cm³]</t>
+    <t xml:space="preserve">Snow Density [g/cm3]</t>
   </si>
   <si>
     <t xml:space="preserve">Depth [cm]</t>
@@ -476,28 +479,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="topLeft" activeCell="M56" activeCellId="0" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="2.02551020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.02551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.75510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.75510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,15 +786,16 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="7"/>
+      <c r="L38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="7"/>
+      <c r="O38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
     </row>
     <row r="39" s="14" customFormat="true" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
@@ -819,19 +825,22 @@
       <c r="I39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="K39" s="13"/>
       <c r="L39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12" t="s">
+      <c r="M39" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="N39" s="12"/>
       <c r="O39" s="12" t="s">
         <v>62</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,31 +859,32 @@
       <c r="E40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="15" t="n">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="G40" s="15" t="n">
+      <c r="H40" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="16" t="n">
-        <f aca="false">IF(H40="feast",1,IF(H40="4 finger",2,IF(H40="3 finger",3,IF(H40="2 finger",4,IF(H40="1 finger",5,IF(H40="pencil",6,IF(H40="knife",7,IF(H40="nan","NaN","NaN"))))))))</f>
+      <c r="J40" s="16" t="n">
+        <f aca="false">IF(I40="feast",1,IF(I40="4 finger",2,IF(I40="3 finger",3,IF(I40="2 finger",4,IF(I40="1 finger",5,IF(I40="pencil",6,IF(I40="knife",7,IF(I40="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="9" t="n">
+      <c r="K40" s="7"/>
+      <c r="L40" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L40" s="9" t="n">
+      <c r="M40" s="9" t="n">
         <v>12.4</v>
       </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="10" t="n">
+      <c r="N40" s="16"/>
+      <c r="O40" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="O40" s="10" t="n">
+      <c r="P40" s="10" t="n">
         <v>-2.7</v>
       </c>
     </row>
@@ -894,31 +904,32 @@
       <c r="E41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="15" t="n">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="G41" s="15" t="n">
+      <c r="H41" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="I41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="16" t="n">
-        <f aca="false">IF(H41="feast",1,IF(H41="4 finger",2,IF(H41="3 finger",3,IF(H41="2 finger",4,IF(H41="1 finger",5,IF(H41="pencil",6,IF(H41="knife",7,IF(H41="nan","NaN","NaN"))))))))</f>
+      <c r="J41" s="16" t="n">
+        <f aca="false">IF(I41="feast",1,IF(I41="4 finger",2,IF(I41="3 finger",3,IF(I41="2 finger",4,IF(I41="1 finger",5,IF(I41="pencil",6,IF(I41="knife",7,IF(I41="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="10" t="n">
+      <c r="K41" s="7"/>
+      <c r="L41" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="L41" s="10" t="n">
+      <c r="M41" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="9" t="n">
+      <c r="N41" s="16"/>
+      <c r="O41" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="O41" s="9" t="n">
+      <c r="P41" s="9" t="n">
         <v>-3.6</v>
       </c>
     </row>
@@ -938,31 +949,32 @@
       <c r="E42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="15" t="n">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="G42" s="15" t="n">
+      <c r="H42" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="16" t="n">
-        <f aca="false">IF(H42="feast",1,IF(H42="4 finger",2,IF(H42="3 finger",3,IF(H42="2 finger",4,IF(H42="1 finger",5,IF(H42="pencil",6,IF(H42="knife",7,IF(H42="nan","NaN","NaN"))))))))</f>
+      <c r="J42" s="16" t="n">
+        <f aca="false">IF(I42="feast",1,IF(I42="4 finger",2,IF(I42="3 finger",3,IF(I42="2 finger",4,IF(I42="1 finger",5,IF(I42="pencil",6,IF(I42="knife",7,IF(I42="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="10" t="n">
+      <c r="K42" s="7"/>
+      <c r="L42" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="L42" s="10" t="n">
+      <c r="M42" s="10" t="n">
         <v>10.6</v>
       </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="10" t="n">
+      <c r="N42" s="16"/>
+      <c r="O42" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="O42" s="10" t="n">
+      <c r="P42" s="10" t="n">
         <v>-4.1</v>
       </c>
     </row>
@@ -982,31 +994,32 @@
       <c r="E43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="15" t="n">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="H43" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="I43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="16" t="n">
-        <f aca="false">IF(H43="feast",1,IF(H43="4 finger",2,IF(H43="3 finger",3,IF(H43="2 finger",4,IF(H43="1 finger",5,IF(H43="pencil",6,IF(H43="knife",7,IF(H43="nan","NaN","NaN"))))))))</f>
+      <c r="J43" s="16" t="n">
+        <f aca="false">IF(I43="feast",1,IF(I43="4 finger",2,IF(I43="3 finger",3,IF(I43="2 finger",4,IF(I43="1 finger",5,IF(I43="pencil",6,IF(I43="knife",7,IF(I43="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="10" t="n">
+      <c r="K43" s="7"/>
+      <c r="L43" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="L43" s="10" t="n">
+      <c r="M43" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="10" t="n">
+      <c r="N43" s="16"/>
+      <c r="O43" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="O43" s="10" t="n">
+      <c r="P43" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1026,29 +1039,30 @@
       <c r="E44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="15" t="n">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="G44" s="15" t="n">
+      <c r="H44" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="16" t="n">
-        <f aca="false">IF(H44="feast",1,IF(H44="4 finger",2,IF(H44="3 finger",3,IF(H44="2 finger",4,IF(H44="1 finger",5,IF(H44="pencil",6,IF(H44="knife",7,IF(H44="nan","NaN","NaN"))))))))</f>
+      <c r="J44" s="16" t="n">
+        <f aca="false">IF(I44="feast",1,IF(I44="4 finger",2,IF(I44="3 finger",3,IF(I44="2 finger",4,IF(I44="1 finger",5,IF(I44="pencil",6,IF(I44="knife",7,IF(I44="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="10" t="n">
+      <c r="K44" s="7"/>
+      <c r="L44" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="L44" s="10" t="n">
+      <c r="M44" s="10" t="n">
         <v>23.4</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="10"/>
+      <c r="N44" s="16"/>
       <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="n">
@@ -1066,29 +1080,30 @@
       <c r="E45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="15" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="F45" s="15"/>
       <c r="G45" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="16" t="n">
-        <f aca="false">IF(H45="feast",1,IF(H45="4 finger",2,IF(H45="3 finger",3,IF(H45="2 finger",4,IF(H45="1 finger",5,IF(H45="pencil",6,IF(H45="knife",7,IF(H45="nan","NaN","NaN"))))))))</f>
+      <c r="J45" s="16" t="n">
+        <f aca="false">IF(I45="feast",1,IF(I45="4 finger",2,IF(I45="3 finger",3,IF(I45="2 finger",4,IF(I45="1 finger",5,IF(I45="pencil",6,IF(I45="knife",7,IF(I45="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="10" t="n">
+      <c r="K45" s="7"/>
+      <c r="L45" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="L45" s="10" t="n">
+      <c r="M45" s="10" t="n">
         <v>26.3</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="10"/>
+      <c r="N45" s="16"/>
       <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -1104,29 +1119,30 @@
         <v>24</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="15" t="n">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="G46" s="15" t="n">
+      <c r="H46" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="16" t="n">
-        <f aca="false">IF(H46="feast",1,IF(H46="4 finger",2,IF(H46="3 finger",3,IF(H46="2 finger",4,IF(H46="1 finger",5,IF(H46="pencil",6,IF(H46="knife",7,IF(H46="nan","NaN","NaN"))))))))</f>
+      <c r="J46" s="16" t="n">
+        <f aca="false">IF(I46="feast",1,IF(I46="4 finger",2,IF(I46="3 finger",3,IF(I46="2 finger",4,IF(I46="1 finger",5,IF(I46="pencil",6,IF(I46="knife",7,IF(I46="nan","NaN","NaN"))))))))</f>
         <v>1</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="10" t="n">
+      <c r="K46" s="7"/>
+      <c r="L46" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="L46" s="10" t="n">
+      <c r="M46" s="10" t="n">
         <v>28.3</v>
       </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="10"/>
+      <c r="N46" s="16"/>
       <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="n">
@@ -1142,25 +1158,26 @@
         <v>26</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="15" t="n">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="G47" s="15" t="n">
+      <c r="H47" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="16" t="n">
-        <f aca="false">IF(H47="feast",1,IF(H47="4 finger",2,IF(H47="3 finger",3,IF(H47="2 finger",4,IF(H47="1 finger",5,IF(H47="pencil",6,IF(H47="knife",7,IF(H47="nan","NaN","NaN"))))))))</f>
+      <c r="J47" s="16" t="n">
+        <f aca="false">IF(I47="feast",1,IF(I47="4 finger",2,IF(I47="3 finger",3,IF(I47="2 finger",4,IF(I47="1 finger",5,IF(I47="pencil",6,IF(I47="knife",7,IF(I47="nan","NaN","NaN"))))))))</f>
         <v>5</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="7"/>
       <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="n">
@@ -1178,25 +1195,26 @@
       <c r="E48" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="15" t="n">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="G48" s="15" t="n">
+      <c r="H48" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="I48" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="16" t="n">
-        <f aca="false">IF(H48="feast",1,IF(H48="4 finger",2,IF(H48="3 finger",3,IF(H48="2 finger",4,IF(H48="1 finger",5,IF(H48="pencil",6,IF(H48="knife",7,IF(H48="nan","NaN","NaN"))))))))</f>
+      <c r="J48" s="16" t="n">
+        <f aca="false">IF(I48="feast",1,IF(I48="4 finger",2,IF(I48="3 finger",3,IF(I48="2 finger",4,IF(I48="1 finger",5,IF(I48="pencil",6,IF(I48="knife",7,IF(I48="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="10"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="7"/>
       <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="n">
@@ -1212,25 +1230,26 @@
         <v>14</v>
       </c>
       <c r="E49" s="15"/>
-      <c r="F49" s="15" t="n">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="G49" s="15" t="n">
+      <c r="H49" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="I49" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="16" t="n">
-        <f aca="false">IF(H49="feast",1,IF(H49="4 finger",2,IF(H49="3 finger",3,IF(H49="2 finger",4,IF(H49="1 finger",5,IF(H49="pencil",6,IF(H49="knife",7,IF(H49="nan","NaN","NaN"))))))))</f>
+      <c r="J49" s="16" t="n">
+        <f aca="false">IF(I49="feast",1,IF(I49="4 finger",2,IF(I49="3 finger",3,IF(I49="2 finger",4,IF(I49="1 finger",5,IF(I49="pencil",6,IF(I49="knife",7,IF(I49="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="10"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="10"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="7"/>
       <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="n">
@@ -1246,25 +1265,26 @@
         <v>12</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="15" t="n">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="G50" s="15" t="n">
+      <c r="H50" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="16" t="n">
-        <f aca="false">IF(H50="feast",1,IF(H50="4 finger",2,IF(H50="3 finger",3,IF(H50="2 finger",4,IF(H50="1 finger",5,IF(H50="pencil",6,IF(H50="knife",7,IF(H50="nan","NaN","NaN"))))))))</f>
+      <c r="J50" s="16" t="n">
+        <f aca="false">IF(I50="feast",1,IF(I50="4 finger",2,IF(I50="3 finger",3,IF(I50="2 finger",4,IF(I50="1 finger",5,IF(I50="pencil",6,IF(I50="knife",7,IF(I50="nan","NaN","NaN"))))))))</f>
         <v>3</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="10"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="10"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="7"/>
       <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="n">
@@ -1282,25 +1302,26 @@
       <c r="E51" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="15" t="n">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="G51" s="15" t="n">
+      <c r="H51" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="I51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="16" t="n">
-        <f aca="false">IF(H51="feast",1,IF(H51="4 finger",2,IF(H51="3 finger",3,IF(H51="2 finger",4,IF(H51="1 finger",5,IF(H51="pencil",6,IF(H51="knife",7,IF(H51="nan","NaN","NaN"))))))))</f>
+      <c r="J51" s="16" t="n">
+        <f aca="false">IF(I51="feast",1,IF(I51="4 finger",2,IF(I51="3 finger",3,IF(I51="2 finger",4,IF(I51="1 finger",5,IF(I51="pencil",6,IF(I51="knife",7,IF(I51="nan","NaN","NaN"))))))))</f>
         <v>5</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="10"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="7"/>
       <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="n">
@@ -1318,25 +1339,26 @@
       <c r="E52" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="15" t="n">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G52" s="15" t="n">
+      <c r="H52" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="I52" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="16" t="n">
-        <f aca="false">IF(H52="feast",1,IF(H52="4 finger",2,IF(H52="3 finger",3,IF(H52="2 finger",4,IF(H52="1 finger",5,IF(H52="pencil",6,IF(H52="knife",7,IF(H52="nan","NaN","NaN"))))))))</f>
+      <c r="J52" s="16" t="n">
+        <f aca="false">IF(I52="feast",1,IF(I52="4 finger",2,IF(I52="3 finger",3,IF(I52="2 finger",4,IF(I52="1 finger",5,IF(I52="pencil",6,IF(I52="knife",7,IF(I52="nan","NaN","NaN"))))))))</f>
         <v>7</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="10"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="10"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="7"/>
       <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
@@ -1347,13 +1369,14 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="7"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="10"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="7"/>
       <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
